--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_8/Product_TOC_School_GoalURN-8.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_8/Product_TOC_School_GoalURN-8.xlsx
@@ -406,7 +406,7 @@
     <t>Print awareness 10</t>
   </si>
   <si>
-    <t>Feldman_Product_AlignmentGoalURN-E1</t>
+    <t>Feldman_Product_TOC_25Feb-8</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -822,7 +822,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
